--- a/Outputs_study1/WithinAnalysis_GPT4.xlsx
+++ b/Outputs_study1/WithinAnalysis_GPT4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Nature human behavior\Final version\Data and Code\Outputs_study1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Scientific reports\Data and Code\Outputs_study1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA689705-51FD-4062-931E-2DD0F74FF3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312940F0-1574-4909-8021-CE6109D63EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="1718" windowWidth="21600" windowHeight="11384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>frame</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>ci_up</t>
+  </si>
+  <si>
+    <t>p_adj</t>
   </si>
   <si>
     <t>6 lives</t>
@@ -460,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,16 +493,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -513,16 +519,19 @@
       <c r="G2">
         <v>2.7041047939836398E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -536,16 +545,19 @@
       <c r="G3">
         <v>2.7041047939836398E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -559,16 +571,19 @@
       <c r="G4">
         <v>2.7041047939836398E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -582,16 +597,19 @@
       <c r="G5">
         <v>2.7041047939836398E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>1.92310481376551</v>
@@ -605,16 +623,19 @@
       <c r="G6">
         <v>1.97306395547277</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <v>0.108933775858419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>1.4427864197660101</v>
@@ -628,16 +649,19 @@
       <c r="G7">
         <v>1.49605926159074</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7">
+        <v>0.26834516254560598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>1.92310481376551</v>
@@ -651,21 +675,24 @@
       <c r="G8">
         <v>1.97306395547277</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <v>0.108933775858419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>3.3204973450229001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>8.9857213787936097E-4</v>
       </c>
       <c r="F9">
@@ -674,16 +701,19 @@
       <c r="G9">
         <v>3.4073006060339299</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="1">
+        <v>5.3914328272761701E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>-1.0099504938362101</v>
@@ -697,16 +727,19 @@
       <c r="G10">
         <v>-0.971898463961402</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10">
+        <v>0.51139474224095105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -720,16 +753,19 @@
       <c r="G11">
         <v>2.7041047939836398E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -743,21 +779,24 @@
       <c r="G12">
         <v>6.4576436069732193E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>-2.5942044844646501</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>9.4810079393590208E-3</v>
       </c>
       <c r="F13">
@@ -766,16 +805,19 @@
       <c r="G13">
         <v>-2.5349482976934499</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="1">
+        <v>2.84430238180771E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>-1.92310481376551</v>
@@ -789,21 +831,24 @@
       <c r="G14">
         <v>-1.87314567205825</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14">
+        <v>0.108933775858419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>-3.6458953895427899</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>2.6646236486094199E-4</v>
       </c>
       <c r="F15">
@@ -812,21 +857,24 @@
       <c r="G15">
         <v>-3.5721097660396302</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" s="1">
+        <v>2.3981612837484798E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>-3.7998029782867402</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>1.4481117069142801E-4</v>
       </c>
       <c r="F16">
@@ -835,21 +883,24 @@
       <c r="G16">
         <v>-3.7239490460240701</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="1">
+        <v>2.3981612837484798E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>-2.9755951785595198</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>2.9242059264871201E-3</v>
       </c>
       <c r="F17">
@@ -858,21 +909,24 @@
       <c r="G17">
         <v>-2.91101874248979</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="1">
+        <v>1.3158926669192101E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>-2.7898611941828499</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>5.2730642991634102E-3</v>
       </c>
       <c r="F18">
@@ -881,16 +935,19 @@
       <c r="G18">
         <v>-2.7278731644570402</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="1">
+        <v>1.89830314769883E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -903,6 +960,9 @@
       </c>
       <c r="G19">
         <v>2.7041047939836398E-2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
